--- a/soberano/test_cases/provider_modify_test_cases.xlsx
+++ b/soberano/test_cases/provider_modify_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">User17 is NOT allowed to modify provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User18 is NOT allowed to modify provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User19 is NOT allowed to modify provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User20 is NOT allowed to modify provider</t>
   </si>
   <si>
     <t xml:space="preserve">User1 tries to modify another provider with the same code and fails</t>
@@ -281,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,7 +512,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,9 +522,6 @@
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -542,9 +530,6 @@
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -553,9 +538,6 @@
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -595,30 +577,6 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
